--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Itgav-Thy1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Itgav-Thy1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="H2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="I2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="J2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.676256</v>
+        <v>1.943736666666666</v>
       </c>
       <c r="N2">
-        <v>5.028768</v>
+        <v>5.83121</v>
       </c>
       <c r="O2">
-        <v>0.01781408474712955</v>
+        <v>0.02216753253531823</v>
       </c>
       <c r="P2">
-        <v>0.01781408474712955</v>
+        <v>0.02216753253531823</v>
       </c>
       <c r="Q2">
-        <v>27.717905418624</v>
+        <v>5.29474191956111</v>
       </c>
       <c r="R2">
-        <v>249.461148767616</v>
+        <v>47.65267727605</v>
       </c>
       <c r="S2">
-        <v>0.003777393205391803</v>
+        <v>0.001027576075801228</v>
       </c>
       <c r="T2">
-        <v>0.003777393205391803</v>
+        <v>0.001027576075801228</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="H3">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="I3">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="J3">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>190.370334</v>
       </c>
       <c r="O3">
-        <v>0.6743745711107288</v>
+        <v>0.7236989531682786</v>
       </c>
       <c r="P3">
-        <v>0.6743745711107288</v>
+        <v>0.7236989531682786</v>
       </c>
       <c r="Q3">
-        <v>1049.296152123912</v>
+        <v>172.8563690332967</v>
       </c>
       <c r="R3">
-        <v>9443.665369115206</v>
+        <v>1555.70732129967</v>
       </c>
       <c r="S3">
-        <v>0.1429979681225636</v>
+        <v>0.03354706840616081</v>
       </c>
       <c r="T3">
-        <v>0.1429979681225636</v>
+        <v>0.03354706840616081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="H4">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="I4">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="J4">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.96419433333334</v>
+        <v>22.28342866666667</v>
       </c>
       <c r="N4">
-        <v>86.892583</v>
+        <v>66.850286</v>
       </c>
       <c r="O4">
-        <v>0.3078113441421415</v>
+        <v>0.2541335142964031</v>
       </c>
       <c r="P4">
-        <v>0.3078113441421415</v>
+        <v>0.2541335142964031</v>
       </c>
       <c r="Q4">
-        <v>478.940447675044</v>
+        <v>60.70009682704777</v>
       </c>
       <c r="R4">
-        <v>4310.464029075396</v>
+        <v>546.30087144343</v>
       </c>
       <c r="S4">
-        <v>0.06526995332119979</v>
+        <v>0.01178036026040388</v>
       </c>
       <c r="T4">
-        <v>0.06526995332119979</v>
+        <v>0.01178036026040388</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>121.861892</v>
       </c>
       <c r="I5">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="J5">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.676256</v>
+        <v>1.943736666666666</v>
       </c>
       <c r="N5">
-        <v>5.028768</v>
+        <v>5.83121</v>
       </c>
       <c r="O5">
-        <v>0.01781408474712955</v>
+        <v>0.02216753253531823</v>
       </c>
       <c r="P5">
-        <v>0.01781408474712955</v>
+        <v>0.02216753253531823</v>
       </c>
       <c r="Q5">
-        <v>68.09057587878401</v>
+        <v>78.95580924992444</v>
       </c>
       <c r="R5">
-        <v>612.8151829090561</v>
+        <v>710.6022832493201</v>
       </c>
       <c r="S5">
-        <v>0.009279376446061275</v>
+        <v>0.01532333433117981</v>
       </c>
       <c r="T5">
-        <v>0.009279376446061274</v>
+        <v>0.0153233343311798</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>121.861892</v>
       </c>
       <c r="I6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="J6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>190.370334</v>
       </c>
       <c r="O6">
-        <v>0.6743745711107288</v>
+        <v>0.7236989531682786</v>
       </c>
       <c r="P6">
-        <v>0.6743745711107288</v>
+        <v>0.7236989531682786</v>
       </c>
       <c r="Q6">
         <v>2577.654342434659</v>
@@ -818,10 +818,10 @@
         <v>23198.88908191193</v>
       </c>
       <c r="S6">
-        <v>0.3512824599083548</v>
+        <v>0.5002577980591277</v>
       </c>
       <c r="T6">
-        <v>0.3512824599083548</v>
+        <v>0.5002577980591276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>121.861892</v>
       </c>
       <c r="I7">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="J7">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.96419433333334</v>
+        <v>22.28342866666667</v>
       </c>
       <c r="N7">
-        <v>86.892583</v>
+        <v>66.850286</v>
       </c>
       <c r="O7">
-        <v>0.3078113441421415</v>
+        <v>0.2541335142964031</v>
       </c>
       <c r="P7">
-        <v>0.3078113441421415</v>
+        <v>0.2541335142964031</v>
       </c>
       <c r="Q7">
-        <v>1176.543840571893</v>
+        <v>905.1669258556792</v>
       </c>
       <c r="R7">
-        <v>10588.89456514704</v>
+        <v>8146.502332701112</v>
       </c>
       <c r="S7">
-        <v>0.1603392695840461</v>
+        <v>0.1756701066353276</v>
       </c>
       <c r="T7">
-        <v>0.1603392695840461</v>
+        <v>0.1756701066353276</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="H8">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="I8">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="J8">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.676256</v>
+        <v>1.943736666666666</v>
       </c>
       <c r="N8">
-        <v>5.028768</v>
+        <v>5.83121</v>
       </c>
       <c r="O8">
-        <v>0.01781408474712955</v>
+        <v>0.02216753253531823</v>
       </c>
       <c r="P8">
-        <v>0.01781408474712955</v>
+        <v>0.02216753253531823</v>
       </c>
       <c r="Q8">
-        <v>34.908415062624</v>
+        <v>29.97102962828333</v>
       </c>
       <c r="R8">
-        <v>314.175735563616</v>
+        <v>269.73926665455</v>
       </c>
       <c r="S8">
-        <v>0.004757315095676477</v>
+        <v>0.005816622128337195</v>
       </c>
       <c r="T8">
-        <v>0.004757315095676476</v>
+        <v>0.005816622128337195</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="H9">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="I9">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="J9">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>190.370334</v>
       </c>
       <c r="O9">
-        <v>0.6743745711107288</v>
+        <v>0.7236989531682786</v>
       </c>
       <c r="P9">
-        <v>0.6743745711107288</v>
+        <v>0.7236989531682786</v>
       </c>
       <c r="Q9">
-        <v>1321.501933452162</v>
+        <v>978.4581451637299</v>
       </c>
       <c r="R9">
-        <v>11893.51740106946</v>
+        <v>8806.12330647357</v>
       </c>
       <c r="S9">
-        <v>0.1800941430798105</v>
+        <v>0.18989408670299</v>
       </c>
       <c r="T9">
-        <v>0.1800941430798105</v>
+        <v>0.18989408670299</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="H10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="I10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="J10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.96419433333334</v>
+        <v>22.28342866666667</v>
       </c>
       <c r="N10">
-        <v>86.892583</v>
+        <v>66.850286</v>
       </c>
       <c r="O10">
-        <v>0.3078113441421415</v>
+        <v>0.2541335142964031</v>
       </c>
       <c r="P10">
-        <v>0.3078113441421415</v>
+        <v>0.2541335142964031</v>
       </c>
       <c r="Q10">
-        <v>603.1859797921691</v>
+        <v>343.5945373885033</v>
       </c>
       <c r="R10">
-        <v>5428.673818129521</v>
+        <v>3092.35083649653</v>
       </c>
       <c r="S10">
-        <v>0.08220212123689563</v>
+        <v>0.06668304740067157</v>
       </c>
       <c r="T10">
-        <v>0.08220212123689562</v>
+        <v>0.06668304740067157</v>
       </c>
     </row>
   </sheetData>
